--- a/teaching/traditional_assets/database/data/japan/japan_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0723</v>
+        <v>-0.01319</v>
       </c>
       <c r="E2">
-        <v>0.109</v>
+        <v>0.104</v>
       </c>
       <c r="G2">
-        <v>0.2724679426441792</v>
+        <v>0.2850671798709862</v>
       </c>
       <c r="H2">
-        <v>0.2718489040490177</v>
+        <v>0.282477398814403</v>
       </c>
       <c r="I2">
-        <v>0.173389665398988</v>
+        <v>0.3010281552853037</v>
       </c>
       <c r="J2">
-        <v>0.1490643799797262</v>
+        <v>0.2555017628362723</v>
       </c>
       <c r="K2">
-        <v>115.2</v>
+        <v>160.01</v>
       </c>
       <c r="L2">
-        <v>0.1455372370665151</v>
+        <v>0.1900875536072799</v>
       </c>
       <c r="M2">
-        <v>55.2216</v>
+        <v>59.606</v>
       </c>
       <c r="N2">
-        <v>0.02301283547257877</v>
+        <v>0.02356247776416176</v>
       </c>
       <c r="O2">
-        <v>0.4793541666666667</v>
+        <v>0.3725142178613837</v>
       </c>
       <c r="P2">
-        <v>51.1686</v>
+        <v>58.437</v>
       </c>
       <c r="Q2">
-        <v>0.02132380396732789</v>
+        <v>0.02310036763252559</v>
       </c>
       <c r="R2">
-        <v>0.444171875</v>
+        <v>0.3652084244734705</v>
       </c>
       <c r="S2">
-        <v>4.052999999999999</v>
+        <v>1.169</v>
       </c>
       <c r="T2">
-        <v>0.07339519318527531</v>
+        <v>0.01961211958527665</v>
       </c>
       <c r="U2">
-        <v>922.485</v>
+        <v>964.24</v>
       </c>
       <c r="V2">
-        <v>0.3844328221370228</v>
+        <v>0.3811677273985057</v>
       </c>
       <c r="W2">
-        <v>0.04538606403013183</v>
+        <v>0.0668697574450591</v>
       </c>
       <c r="X2">
-        <v>0.05473280817680817</v>
+        <v>0.04322716041216142</v>
       </c>
       <c r="Y2">
-        <v>-0.009346744146676342</v>
+        <v>0.02364259703289769</v>
       </c>
       <c r="Z2">
-        <v>0.4234422844644194</v>
+        <v>0.3823723344641726</v>
       </c>
       <c r="AA2">
-        <v>0.01758097461336446</v>
+        <v>0.04997401190701169</v>
       </c>
       <c r="AB2">
-        <v>0.05157137922402463</v>
+        <v>0.03915406618511404</v>
       </c>
       <c r="AC2">
-        <v>-0.0340281919539448</v>
+        <v>0.009700133700752317</v>
       </c>
       <c r="AD2">
-        <v>778</v>
+        <v>831.04</v>
       </c>
       <c r="AE2">
-        <v>55.80705176715551</v>
+        <v>6.257648627449454</v>
       </c>
       <c r="AF2">
-        <v>833.8070517671555</v>
+        <v>837.2976486274495</v>
       </c>
       <c r="AG2">
-        <v>-88.67794823284453</v>
+        <v>-126.9423513725505</v>
       </c>
       <c r="AH2">
-        <v>0.2578725902485598</v>
+        <v>0.2486778239862366</v>
       </c>
       <c r="AI2">
-        <v>0.2494555849407494</v>
+        <v>0.237780992173103</v>
       </c>
       <c r="AJ2">
-        <v>-0.0383734051804269</v>
+        <v>-0.05283194143407057</v>
       </c>
       <c r="AK2">
-        <v>-0.03664344635541227</v>
+        <v>-0.04964391453618159</v>
       </c>
       <c r="AL2">
-        <v>7.984</v>
+        <v>9.057</v>
       </c>
       <c r="AM2">
-        <v>-15.277</v>
+        <v>-10.536</v>
       </c>
       <c r="AN2">
-        <v>4.868189696708028</v>
+        <v>3.071668822768435</v>
       </c>
       <c r="AO2">
-        <v>17.53870240480962</v>
+        <v>27.88208015899304</v>
       </c>
       <c r="AP2">
-        <v>-0.5548856991161203</v>
+        <v>-0.4692010769637795</v>
       </c>
       <c r="AQ2">
-        <v>-9.166001178241801</v>
+        <v>-23.96810933940775</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.0876</v>
       </c>
       <c r="E3">
-        <v>0.123</v>
+        <v>-0.009260000000000001</v>
       </c>
       <c r="G3">
-        <v>0.332129963898917</v>
+        <v>0.3718381112984823</v>
       </c>
       <c r="H3">
-        <v>0.332129963898917</v>
+        <v>0.3718381112984823</v>
       </c>
       <c r="I3">
-        <v>0.3402527075812275</v>
+        <v>0.3836424957841484</v>
       </c>
       <c r="J3">
-        <v>0.2523076088457518</v>
+        <v>0.2093412213529428</v>
       </c>
       <c r="K3">
-        <v>27.3</v>
+        <v>23.3</v>
       </c>
       <c r="L3">
-        <v>0.2463898916967509</v>
+        <v>0.1964586846543002</v>
       </c>
       <c r="M3">
-        <v>16.207</v>
+        <v>16.983</v>
       </c>
       <c r="N3">
-        <v>0.03517144097222222</v>
+        <v>0.0343994328539599</v>
       </c>
       <c r="O3">
-        <v>0.5936630036630037</v>
+        <v>0.7288841201716738</v>
       </c>
       <c r="P3">
-        <v>12.987</v>
+        <v>16.983</v>
       </c>
       <c r="Q3">
-        <v>0.02818359375</v>
+        <v>0.0343994328539599</v>
       </c>
       <c r="R3">
-        <v>0.4757142857142858</v>
+        <v>0.7288841201716738</v>
       </c>
       <c r="S3">
-        <v>3.219999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1986795828962793</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>128.4</v>
+        <v>137.6</v>
       </c>
       <c r="V3">
-        <v>0.2786458333333333</v>
+        <v>0.2787117682803322</v>
       </c>
       <c r="W3">
-        <v>0.1561784897025172</v>
+        <v>0.131489841986456</v>
       </c>
       <c r="X3">
-        <v>0.05473280817680817</v>
+        <v>0.04255091707325465</v>
       </c>
       <c r="Y3">
-        <v>0.101445681525709</v>
+        <v>0.08893892491320135</v>
       </c>
       <c r="Z3">
-        <v>1.567185289957567</v>
+        <v>1.044014084507042</v>
       </c>
       <c r="AA3">
-        <v>0.3954127731274297</v>
+        <v>0.2185551835603787</v>
       </c>
       <c r="AB3">
-        <v>0.05141354376265421</v>
+        <v>0.03888028975612297</v>
       </c>
       <c r="AC3">
-        <v>0.3439992293647755</v>
+        <v>0.1796748938042557</v>
       </c>
       <c r="AD3">
-        <v>64.8</v>
+        <v>85.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>64.8</v>
+        <v>85.3</v>
       </c>
       <c r="AG3">
-        <v>-63.60000000000001</v>
+        <v>-52.3</v>
       </c>
       <c r="AH3">
-        <v>0.1232876712328767</v>
+        <v>0.1473229706390328</v>
       </c>
       <c r="AI3">
-        <v>0.2627737226277372</v>
+        <v>0.302160821820758</v>
       </c>
       <c r="AJ3">
-        <v>-0.1601208459214502</v>
+        <v>-0.1184866334390575</v>
       </c>
       <c r="AK3">
-        <v>-0.5380710659898478</v>
+        <v>-0.3614374568071873</v>
       </c>
       <c r="AL3">
-        <v>0.509</v>
+        <v>0.597</v>
       </c>
       <c r="AM3">
-        <v>-0.6609999999999999</v>
+        <v>-2.373</v>
       </c>
       <c r="AN3">
-        <v>1.628140703517588</v>
+        <v>1.769709543568465</v>
       </c>
       <c r="AO3">
-        <v>74.06679764243616</v>
+        <v>76.21440536013401</v>
       </c>
       <c r="AP3">
-        <v>-1.597989949748744</v>
+        <v>-1.0850622406639</v>
       </c>
       <c r="AQ3">
-        <v>-57.03479576399396</v>
+        <v>-19.1740412979351</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First Brothers Co.,Ltd. (TSE:3454)</t>
+          <t>Mercuria Investment Co., Ltd. (TSE:7190)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,115 +859,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.61</v>
+        <v>0.361</v>
+      </c>
+      <c r="E4">
+        <v>0.578</v>
       </c>
       <c r="G4">
-        <v>0.3438170121515368</v>
+        <v>0.3352826510721247</v>
       </c>
       <c r="H4">
-        <v>0.3438170121515368</v>
+        <v>0.3352826510721247</v>
       </c>
       <c r="I4">
-        <v>0.2259114165238799</v>
+        <v>0.3996101364522417</v>
       </c>
       <c r="J4">
-        <v>0.1384329429007563</v>
+        <v>0.2633179836332646</v>
       </c>
       <c r="K4">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="L4">
-        <v>0.0993566833452466</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>3.006</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.02788497217068646</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.2260150375939849</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>3.006</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.02788497217068646</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2260150375939849</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>68.90000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="V4">
-        <v>0.3914772727272728</v>
+        <v>0.2866419294990724</v>
       </c>
       <c r="W4">
-        <v>0.1168067226890756</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="X4">
-        <v>0.1064542279972884</v>
+        <v>0.04138038828556295</v>
       </c>
       <c r="Y4">
-        <v>0.01035249469178723</v>
+        <v>0.08528627838110373</v>
       </c>
       <c r="Z4">
-        <v>0.4683237653138042</v>
+        <v>0.61958018309621</v>
       </c>
       <c r="AA4">
-        <v>0.06483143706275307</v>
+        <v>0.1631466045120229</v>
       </c>
       <c r="AB4">
-        <v>0.05064954588908555</v>
+        <v>0.03891312065083341</v>
       </c>
       <c r="AC4">
-        <v>0.01418189117366753</v>
+        <v>0.1242334838611895</v>
       </c>
       <c r="AD4">
-        <v>426.9</v>
+        <v>12.5</v>
       </c>
       <c r="AE4">
-        <v>3.124964141546044</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>430.024964141546</v>
+        <v>12.5</v>
       </c>
       <c r="AG4">
-        <v>361.124964141546</v>
+        <v>-18.4</v>
       </c>
       <c r="AH4">
-        <v>0.7095829208136506</v>
+        <v>0.1039068994181214</v>
       </c>
       <c r="AI4">
-        <v>0.7603996134712004</v>
+        <v>0.09571209800918837</v>
       </c>
       <c r="AJ4">
-        <v>0.6723295103565144</v>
+        <v>-0.2058165548098434</v>
       </c>
       <c r="AK4">
-        <v>0.7271582989505531</v>
+        <v>-0.1845536609829488</v>
       </c>
       <c r="AL4">
-        <v>2.86</v>
+        <v>0.123</v>
       </c>
       <c r="AM4">
-        <v>2.851</v>
+        <v>-0.4360000000000001</v>
       </c>
       <c r="AN4">
-        <v>12.04911092294665</v>
+        <v>0.6038647342995169</v>
       </c>
       <c r="AO4">
-        <v>10.76923076923077</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="AP4">
-        <v>10.19263234946503</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="AQ4">
-        <v>10.80322693791652</v>
+        <v>-47.01834862385321</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mercuria Investment Co., Ltd. (TSE:7190)</t>
+          <t>JAFCO Group Co., Ltd. (TSE:8595)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -986,116 +992,122 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.119</v>
+      </c>
+      <c r="E5">
+        <v>-0.155</v>
+      </c>
       <c r="G5">
-        <v>0.6237942122186494</v>
+        <v>0.444760101010101</v>
       </c>
       <c r="H5">
-        <v>0.6237942122186494</v>
+        <v>0.444760101010101</v>
       </c>
       <c r="I5">
-        <v>0.2704180064308682</v>
+        <v>0.4753787878787878</v>
       </c>
       <c r="J5">
-        <v>0.1654485489217137</v>
+        <v>0.2965315127147407</v>
       </c>
       <c r="K5">
-        <v>4.82</v>
+        <v>108.6</v>
       </c>
       <c r="L5">
-        <v>0.154983922829582</v>
+        <v>0.3428030303030303</v>
       </c>
       <c r="M5">
-        <v>2.8891</v>
+        <v>34.617</v>
       </c>
       <c r="N5">
-        <v>0.02397593360995851</v>
+        <v>0.02242905274070235</v>
       </c>
       <c r="O5">
-        <v>0.5993983402489627</v>
+        <v>0.3187569060773481</v>
       </c>
       <c r="P5">
-        <v>2.8891</v>
+        <v>34.608</v>
       </c>
       <c r="Q5">
-        <v>0.02397593360995851</v>
+        <v>0.02242322145911624</v>
       </c>
       <c r="R5">
-        <v>0.5993983402489627</v>
+        <v>0.3186740331491713</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.009000000000000341</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0002599878672328723</v>
       </c>
       <c r="U5">
-        <v>33.5</v>
+        <v>638.9</v>
       </c>
       <c r="V5">
-        <v>0.2780082987551867</v>
+        <v>0.4139562005960865</v>
       </c>
       <c r="W5">
-        <v>0.04538606403013183</v>
+        <v>0.06625183016105417</v>
       </c>
       <c r="X5">
-        <v>0.05369916103386621</v>
+        <v>0.03902105811972663</v>
       </c>
       <c r="Y5">
-        <v>-0.008313097003734379</v>
+        <v>0.02723077204132754</v>
       </c>
       <c r="Z5">
-        <v>0.3961732971554503</v>
+        <v>0.2669475458184116</v>
       </c>
       <c r="AA5">
-        <v>0.06554629713590014</v>
+        <v>0.07915835957702115</v>
       </c>
       <c r="AB5">
-        <v>0.0514615739320272</v>
+        <v>0.03899061787787119</v>
       </c>
       <c r="AC5">
-        <v>0.01408472320387294</v>
+        <v>0.04016774169914996</v>
       </c>
       <c r="AD5">
-        <v>11.4</v>
+        <v>2.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>11.4</v>
+        <v>2.2</v>
       </c>
       <c r="AG5">
-        <v>-22.1</v>
+        <v>-636.6999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.08642911296436695</v>
+        <v>0.001423395445134576</v>
       </c>
       <c r="AI5">
-        <v>0.09382716049382717</v>
+        <v>0.001100990891802622</v>
       </c>
       <c r="AJ5">
-        <v>-0.2245934959349594</v>
+        <v>-0.7022168302635931</v>
       </c>
       <c r="AK5">
-        <v>-0.2511363636363637</v>
+        <v>-0.4684028544103582</v>
       </c>
       <c r="AL5">
-        <v>0.268</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.259</v>
+        <v>-13.691</v>
       </c>
       <c r="AN5">
-        <v>1.338028169014085</v>
+        <v>0.01443569553805774</v>
       </c>
       <c r="AO5">
-        <v>31.38059701492537</v>
+        <v>16733.33333333334</v>
       </c>
       <c r="AP5">
-        <v>-2.593896713615024</v>
+        <v>-4.177821522309711</v>
       </c>
       <c r="AQ5">
-        <v>32.47104247104247</v>
+        <v>-10.99992695931634</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JAFCO Co., Ltd. (TSE:8595)</t>
+          <t>Fund Creation Group Company Limited (JASDAQ:3266)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,46 +1127,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.212</v>
+        <v>-0.21</v>
       </c>
       <c r="E6">
-        <v>-0.214</v>
+        <v>-0.223</v>
       </c>
       <c r="G6">
-        <v>0.7483221476510067</v>
+        <v>0.08175182481751826</v>
       </c>
       <c r="H6">
-        <v>0.7483221476510067</v>
+        <v>0.08175182481751826</v>
       </c>
       <c r="I6">
-        <v>0.4671140939597315</v>
+        <v>0.1306569343065694</v>
       </c>
       <c r="J6">
-        <v>0.3583847116369013</v>
+        <v>0.1169080673631983</v>
       </c>
       <c r="K6">
-        <v>68</v>
+        <v>1.37</v>
       </c>
       <c r="L6">
-        <v>0.4563758389261745</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
-        <v>32.136</v>
+        <v>0.3384</v>
       </c>
       <c r="N6">
-        <v>0.02630002455192732</v>
+        <v>0.01044444444444444</v>
       </c>
       <c r="O6">
-        <v>0.4725882352941177</v>
+        <v>0.2470072992700729</v>
       </c>
       <c r="P6">
-        <v>32.136</v>
+        <v>0.3384</v>
       </c>
       <c r="Q6">
-        <v>0.02630002455192732</v>
+        <v>0.01044444444444444</v>
       </c>
       <c r="R6">
-        <v>0.4725882352941177</v>
+        <v>0.2470072992700729</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1163,73 +1175,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>455.1</v>
+        <v>6.54</v>
       </c>
       <c r="V6">
-        <v>0.3724527375398969</v>
+        <v>0.2018518518518519</v>
       </c>
       <c r="W6">
-        <v>0.04569278322806074</v>
+        <v>0.06748768472906404</v>
       </c>
       <c r="X6">
-        <v>0.05162291204816864</v>
+        <v>0.0464941988698591</v>
       </c>
       <c r="Y6">
-        <v>-0.005930128820107898</v>
+        <v>0.02099348585920494</v>
       </c>
       <c r="Z6">
-        <v>0.1545611086906911</v>
+        <v>0.6440996708979783</v>
       </c>
       <c r="AA6">
-        <v>0.05539233836839309</v>
+        <v>0.07530044771395472</v>
       </c>
       <c r="AB6">
-        <v>0.05157137922402463</v>
+        <v>0.0400122841922344</v>
       </c>
       <c r="AC6">
-        <v>0.00382095914436846</v>
+        <v>0.03528816352172032</v>
       </c>
       <c r="AD6">
-        <v>2.65</v>
+        <v>11.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.65</v>
+        <v>11.8</v>
       </c>
       <c r="AG6">
-        <v>-452.45</v>
+        <v>5.260000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.00216406026703687</v>
+        <v>0.2669683257918552</v>
       </c>
       <c r="AI6">
-        <v>0.001614032950634954</v>
+        <v>0.3543543543543544</v>
       </c>
       <c r="AJ6">
-        <v>-0.5880174150367146</v>
+        <v>0.1396707381837494</v>
       </c>
       <c r="AK6">
-        <v>-0.3812513166210239</v>
+        <v>0.1965620328849028</v>
       </c>
       <c r="AL6">
-        <v>0.008999999999999999</v>
+        <v>0.227</v>
       </c>
       <c r="AM6">
-        <v>-19.991</v>
+        <v>0.199</v>
       </c>
       <c r="AN6">
-        <v>0.03742937853107345</v>
+        <v>6.519337016574585</v>
       </c>
       <c r="AO6">
-        <v>7733.333333333333</v>
+        <v>7.885462555066079</v>
       </c>
       <c r="AP6">
-        <v>-6.390536723163843</v>
+        <v>2.906077348066299</v>
       </c>
       <c r="AQ6">
-        <v>-3.481566705017257</v>
+        <v>8.994974874371859</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Japan Asia Investment Co., Ltd. (TSE:8518)</t>
+          <t>First Brothers Co.,Ltd. (TSE:3454)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1249,118 +1261,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.161</v>
+        <v>0.355</v>
       </c>
       <c r="E7">
-        <v>0.09119999999999999</v>
+        <v>0.194</v>
       </c>
       <c r="G7">
-        <v>0.08259587020648967</v>
+        <v>0.1881443298969072</v>
       </c>
       <c r="H7">
-        <v>0.08259587020648967</v>
+        <v>0.1881443298969072</v>
       </c>
       <c r="I7">
-        <v>0.1277286135693216</v>
+        <v>0.2089250298806217</v>
       </c>
       <c r="J7">
-        <v>0.1241645421499664</v>
+        <v>0.1660862353765907</v>
       </c>
       <c r="K7">
-        <v>6.01</v>
+        <v>36.2</v>
       </c>
       <c r="L7">
-        <v>0.1772861356932153</v>
+        <v>0.1865979381443299</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>2.772</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.02270270270270271</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.07657458563535911</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>2.772</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.02270270270270271</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.07657458563535911</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>47.4</v>
+        <v>53.5</v>
       </c>
       <c r="V7">
-        <v>1.019354838709677</v>
+        <v>0.4381654381654382</v>
       </c>
       <c r="W7">
-        <v>0.1144761904761905</v>
+        <v>0.2673559822747415</v>
       </c>
       <c r="X7">
-        <v>0.1412258620223421</v>
+        <v>0.1205219739355729</v>
       </c>
       <c r="Y7">
-        <v>-0.02674967154615167</v>
+        <v>0.1468340083391685</v>
       </c>
       <c r="Z7">
-        <v>0.1983616149795202</v>
+        <v>0.3914109736190737</v>
       </c>
       <c r="AA7">
-        <v>0.02462947910406005</v>
+        <v>0.06500797509347801</v>
       </c>
       <c r="AB7">
-        <v>0.05264041635138175</v>
+        <v>0.03838802896422239</v>
       </c>
       <c r="AC7">
-        <v>-0.0280109372473217</v>
+        <v>0.02661994612925563</v>
       </c>
       <c r="AD7">
-        <v>185.6</v>
+        <v>481</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>2.242721015796929</v>
       </c>
       <c r="AF7">
-        <v>185.6</v>
+        <v>483.2427210157969</v>
       </c>
       <c r="AG7">
-        <v>138.2</v>
+        <v>429.7427210157969</v>
       </c>
       <c r="AH7">
-        <v>0.7996553209823352</v>
+        <v>0.7982960796239364</v>
       </c>
       <c r="AI7">
-        <v>0.7046317388003037</v>
+        <v>0.7390809830612487</v>
       </c>
       <c r="AJ7">
-        <v>0.7482403898213319</v>
+        <v>0.7787413055385671</v>
       </c>
       <c r="AK7">
-        <v>0.6398148148148147</v>
+        <v>0.7158289856311743</v>
       </c>
       <c r="AL7">
-        <v>3.28</v>
+        <v>3.89</v>
       </c>
       <c r="AM7">
-        <v>3.132</v>
+        <v>3.881</v>
       </c>
       <c r="AN7">
-        <v>41.52125279642058</v>
+        <v>10.10928961748634</v>
       </c>
       <c r="AO7">
-        <v>1.320121951219512</v>
+        <v>10.15424164524422</v>
       </c>
       <c r="AP7">
-        <v>30.917225950783</v>
+        <v>9.032003384106703</v>
       </c>
       <c r="AQ7">
-        <v>1.382503192848021</v>
+        <v>10.17778922958001</v>
       </c>
     </row>
     <row r="8">
@@ -1371,7 +1386,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sun Capital Management Corp. (JASDAQ:2134)</t>
+          <t>Japan Asia Investment Co., Ltd. (TSE:8518)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1380,25 +1395,28 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.208</v>
+        <v>-0.119</v>
+      </c>
+      <c r="E8">
+        <v>0.104</v>
       </c>
       <c r="G8">
-        <v>0.09027522935779816</v>
+        <v>0.1863013698630137</v>
       </c>
       <c r="H8">
-        <v>0.09027522935779816</v>
+        <v>0.1863013698630137</v>
       </c>
       <c r="I8">
-        <v>0.02211009174311927</v>
+        <v>0.1958904109589041</v>
       </c>
       <c r="J8">
-        <v>0.02211009174311927</v>
+        <v>0.1899207031823617</v>
       </c>
       <c r="K8">
-        <v>-7.06</v>
+        <v>4.39</v>
       </c>
       <c r="L8">
-        <v>-0.6477064220183486</v>
+        <v>0.1202739726027397</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1407,7 +1425,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1416,79 +1434,79 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.925</v>
+        <v>48.4</v>
       </c>
       <c r="V8">
-        <v>0.02041942604856513</v>
+        <v>1.287234042553191</v>
       </c>
       <c r="W8">
-        <v>-0.344390243902439</v>
+        <v>0.07292358803986711</v>
       </c>
       <c r="X8">
-        <v>0.05217911504082472</v>
+        <v>0.1386501444631234</v>
       </c>
       <c r="Y8">
-        <v>-0.3965693589432637</v>
+        <v>-0.06572655642325627</v>
       </c>
       <c r="Z8">
-        <v>0.7951561132185586</v>
+        <v>0.1839717741935484</v>
       </c>
       <c r="AA8">
-        <v>0.01758097461336446</v>
+        <v>0.03494004872054537</v>
       </c>
       <c r="AB8">
-        <v>0.05160916656730925</v>
+        <v>0.04215972744829637</v>
       </c>
       <c r="AC8">
-        <v>-0.0340281919539448</v>
+        <v>-0.007219678727750992</v>
       </c>
       <c r="AD8">
-        <v>1.22</v>
+        <v>181.9</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.22</v>
+        <v>181.9</v>
       </c>
       <c r="AG8">
-        <v>0.2949999999999999</v>
+        <v>133.5</v>
       </c>
       <c r="AH8">
-        <v>0.02622527944969906</v>
+        <v>0.8287015945330296</v>
       </c>
       <c r="AI8">
-        <v>0.07340553549939831</v>
+        <v>0.7034029389017787</v>
       </c>
       <c r="AJ8">
-        <v>0.006470007676280293</v>
+        <v>0.7802454704850965</v>
       </c>
       <c r="AK8">
-        <v>0.01879579483912074</v>
+        <v>0.6351094196003806</v>
       </c>
       <c r="AL8">
-        <v>0.056</v>
+        <v>2.94</v>
       </c>
       <c r="AM8">
-        <v>0.028</v>
+        <v>2.58</v>
       </c>
       <c r="AN8">
-        <v>1.75792507204611</v>
+        <v>24.58108108108108</v>
       </c>
       <c r="AO8">
-        <v>4.303571428571428</v>
+        <v>2.431972789115647</v>
       </c>
       <c r="AP8">
-        <v>0.42507204610951</v>
+        <v>18.04054054054054</v>
       </c>
       <c r="AQ8">
-        <v>8.607142857142856</v>
+        <v>2.771317829457364</v>
       </c>
     </row>
     <row r="9">
@@ -1508,121 +1526,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.221</v>
+        <v>0.252</v>
       </c>
       <c r="E9">
-        <v>0.109</v>
+        <v>0.238</v>
       </c>
       <c r="G9">
-        <v>0.038955087076077</v>
+        <v>0.01355389541088581</v>
       </c>
       <c r="H9">
-        <v>0.038955087076077</v>
+        <v>0.01355389541088581</v>
       </c>
       <c r="I9">
-        <v>-0.004052368881468406</v>
+        <v>-0.00923143567054968</v>
       </c>
       <c r="J9">
-        <v>-0.003044636937399543</v>
+        <v>-0.00923143567054968</v>
       </c>
       <c r="K9">
-        <v>6.92</v>
+        <v>-3.44</v>
       </c>
       <c r="L9">
-        <v>0.06342804766269478</v>
+        <v>-0.03671291355389541</v>
       </c>
       <c r="M9">
-        <v>0.4847</v>
+        <v>1.8896</v>
       </c>
       <c r="N9">
-        <v>0.01285676392572944</v>
+        <v>0.04265462753950339</v>
       </c>
       <c r="O9">
-        <v>0.07004335260115606</v>
+        <v>-0.5493023255813954</v>
       </c>
       <c r="P9">
-        <v>0.4847</v>
+        <v>0.7296</v>
       </c>
       <c r="Q9">
-        <v>0.01285676392572944</v>
+        <v>0.01646952595936795</v>
       </c>
       <c r="R9">
-        <v>0.07004335260115606</v>
+        <v>-0.212093023255814</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.6138865368331922</v>
       </c>
       <c r="U9">
-        <v>35.2</v>
+        <v>28.7</v>
       </c>
       <c r="V9">
-        <v>0.9336870026525199</v>
+        <v>0.6478555304740407</v>
       </c>
       <c r="W9">
-        <v>0.1488172043010753</v>
+        <v>-0.06311926605504586</v>
       </c>
       <c r="X9">
-        <v>0.08013960781544228</v>
+        <v>0.06266782225425747</v>
       </c>
       <c r="Y9">
-        <v>0.06867759648563297</v>
+        <v>-0.1257870883093034</v>
       </c>
       <c r="Z9">
-        <v>1.976608004689533</v>
+        <v>1.369764335803537</v>
       </c>
       <c r="AA9">
-        <v>-0.006018053741837361</v>
+        <v>-0.01264489134978355</v>
       </c>
       <c r="AB9">
-        <v>0.05084470919392545</v>
+        <v>0.04103593310028905</v>
       </c>
       <c r="AC9">
-        <v>-0.05686276293576281</v>
+        <v>-0.05368082445007261</v>
       </c>
       <c r="AD9">
-        <v>45.1</v>
+        <v>46.9</v>
       </c>
       <c r="AE9">
-        <v>2.845567224841015</v>
+        <v>4.014927611652525</v>
       </c>
       <c r="AF9">
-        <v>47.94556722484101</v>
+        <v>50.91492761165252</v>
       </c>
       <c r="AG9">
-        <v>12.74556722484101</v>
+        <v>22.21492761165252</v>
       </c>
       <c r="AH9">
-        <v>0.5598137624446099</v>
+        <v>0.5347368200427166</v>
       </c>
       <c r="AI9">
-        <v>0.4559922827970032</v>
+        <v>0.4757740695430658</v>
       </c>
       <c r="AJ9">
-        <v>0.2526598059257164</v>
+        <v>0.3339840906293156</v>
       </c>
       <c r="AK9">
-        <v>0.1822212290289991</v>
+        <v>0.2836614715627618</v>
       </c>
       <c r="AL9">
-        <v>0.62</v>
+        <v>0.645</v>
       </c>
       <c r="AM9">
-        <v>-0.6900000000000001</v>
+        <v>-1.005</v>
       </c>
       <c r="AN9">
-        <v>12.67209890418657</v>
+        <v>13.51585014409222</v>
       </c>
       <c r="AO9">
-        <v>-1.358064516129032</v>
+        <v>-1.088372093023256</v>
       </c>
       <c r="AP9">
-        <v>3.581221473683903</v>
+        <v>6.401996429871044</v>
       </c>
       <c r="AQ9">
-        <v>1.220289855072464</v>
+        <v>0.6985074626865672</v>
       </c>
     </row>
     <row r="10">
@@ -1633,7 +1651,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DSB Co., Ltd. (TSE:8692)</t>
+          <t>Asia Development Capital Co. Ltd. (TSE:9318)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1642,118 +1660,115 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0416</v>
-      </c>
-      <c r="E10">
-        <v>0.124</v>
+        <v>-0.255</v>
       </c>
       <c r="G10">
-        <v>0.002717692734331669</v>
+        <v>-0.5740987983978638</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0.5740987983978638</v>
       </c>
       <c r="I10">
-        <v>-0.02211483128205041</v>
+        <v>-0.5367156208277702</v>
       </c>
       <c r="J10">
-        <v>-0.02211483128205041</v>
+        <v>-0.5367156208277702</v>
       </c>
       <c r="K10">
-        <v>9.390000000000001</v>
+        <v>-7.27</v>
       </c>
       <c r="L10">
-        <v>0.05207986688851914</v>
+        <v>-0.9706275033377836</v>
       </c>
       <c r="M10">
-        <v>3.1673</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.02031622835150738</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.3373056443024494</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.3343</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.01497305965362412</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.248594249201278</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.8329999999999997</v>
-      </c>
-      <c r="T10">
-        <v>0.2630000315726327</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>125.7</v>
+        <v>2.68</v>
       </c>
       <c r="V10">
-        <v>0.8062860808210391</v>
+        <v>0.0404833836858006</v>
       </c>
       <c r="W10">
-        <v>0.04450236966824645</v>
+        <v>-0.3747422680412371</v>
       </c>
       <c r="X10">
-        <v>0.06311983080156226</v>
+        <v>0.04003725809754364</v>
       </c>
       <c r="Y10">
-        <v>-0.01861746113331581</v>
+        <v>-0.4147795261387808</v>
       </c>
       <c r="Z10">
-        <v>1.092485466623789</v>
+        <v>0.3883042148374722</v>
       </c>
       <c r="AA10">
-        <v>-0.02416013177247722</v>
+        <v>-0.2084089377365338</v>
       </c>
       <c r="AB10">
-        <v>0.05113178704180768</v>
+        <v>0.03931643813181397</v>
       </c>
       <c r="AC10">
-        <v>-0.0752919188142849</v>
+        <v>-0.2477253758683478</v>
       </c>
       <c r="AD10">
-        <v>30.3</v>
+        <v>3.36</v>
       </c>
       <c r="AE10">
-        <v>49.83652040076845</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>80.13652040076845</v>
+        <v>3.36</v>
       </c>
       <c r="AG10">
-        <v>-45.56347959923156</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="AH10">
-        <v>0.3395089889679104</v>
+        <v>0.04830362277170788</v>
       </c>
       <c r="AI10">
-        <v>0.2610849966505576</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AJ10">
-        <v>-0.4129501223505525</v>
+        <v>0.01016746411483253</v>
       </c>
       <c r="AK10">
-        <v>-0.2514034119529386</v>
+        <v>0.05120481927710842</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.256</v>
       </c>
       <c r="AM10">
-        <v>-0.324</v>
+        <v>0.247</v>
       </c>
       <c r="AN10">
-        <v>5.066889632107023</v>
+        <v>-0.9056603773584906</v>
+      </c>
+      <c r="AO10">
+        <v>-15.703125</v>
       </c>
       <c r="AP10">
-        <v>-7.619310969771163</v>
+        <v>-0.183288409703504</v>
       </c>
       <c r="AQ10">
-        <v>-0</v>
+        <v>-16.27530364372469</v>
       </c>
     </row>
     <row r="11">
@@ -1764,7 +1779,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fund Creation Group Company Limited (JASDAQ:3266)</t>
+          <t>Future Venture Capital Co., Ltd. (JASDAQ:8462)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1773,118 +1788,112 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.192</v>
+        <v>-0.0196</v>
       </c>
       <c r="G11">
-        <v>-0.01510297482837529</v>
+        <v>-0.151797385620915</v>
       </c>
       <c r="H11">
-        <v>-0.01510297482837529</v>
+        <v>-0.151797385620915</v>
       </c>
       <c r="I11">
-        <v>-0.2036613272311213</v>
+        <v>-0.2990196078431372</v>
       </c>
       <c r="J11">
-        <v>-0.2036613272311213</v>
+        <v>-0.2990196078431372</v>
       </c>
       <c r="K11">
-        <v>-1.95</v>
+        <v>-1.44</v>
       </c>
       <c r="L11">
-        <v>-0.2231121281464531</v>
+        <v>-0.2352941176470588</v>
       </c>
       <c r="M11">
-        <v>0.3375</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.009507042253521126</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>-0.1730769230769231</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.3375</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.009507042253521126</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>-0.1730769230769231</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>6.51</v>
+        <v>16.1</v>
       </c>
       <c r="V11">
-        <v>0.1833802816901408</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="W11">
-        <v>-0.08986175115207373</v>
+        <v>-0.05975103734439834</v>
       </c>
       <c r="X11">
-        <v>0.05630687303308238</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y11">
-        <v>-0.1461686241851561</v>
+        <v>-0.09874273158281244</v>
       </c>
       <c r="Z11">
-        <v>0.4985738733599545</v>
+        <v>1.055172413793103</v>
       </c>
       <c r="AA11">
-        <v>-0.1015402167712493</v>
+        <v>-0.3155172413793103</v>
       </c>
       <c r="AB11">
-        <v>0.05180624730010836</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC11">
-        <v>-0.1533464640713577</v>
+        <v>-0.3545089356177244</v>
       </c>
       <c r="AD11">
-        <v>7.48</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>7.48</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.9700000000000006</v>
+        <v>-16.1</v>
       </c>
       <c r="AH11">
-        <v>0.1740344346207538</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.2692584593232542</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.02659720318069648</v>
+        <v>-0.396551724137931</v>
       </c>
       <c r="AK11">
-        <v>0.04560413728255762</v>
+        <v>-1.939759036144579</v>
       </c>
       <c r="AL11">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.076</v>
+        <v>-0.27</v>
       </c>
       <c r="AN11">
-        <v>-4.274285714285715</v>
-      </c>
-      <c r="AO11">
-        <v>-17.11538461538462</v>
+        <v>-0</v>
       </c>
       <c r="AP11">
-        <v>-0.5542857142857146</v>
+        <v>8.895027624309392</v>
       </c>
       <c r="AQ11">
-        <v>-23.42105263157895</v>
+        <v>6.777777777777778</v>
       </c>
     </row>
     <row r="12">
@@ -1895,7 +1904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Future Venture Capital Co., Ltd. (JASDAQ:8462)</t>
+          <t>Sun Capital Management Corp. (JASDAQ:2134)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1904,25 +1913,25 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.103</v>
+        <v>-0.00678</v>
       </c>
       <c r="G12">
-        <v>-0.319290465631929</v>
+        <v>-0.7584269662921348</v>
       </c>
       <c r="H12">
-        <v>-0.319290465631929</v>
+        <v>-1.370786516853933</v>
       </c>
       <c r="I12">
-        <v>-0.3614190687361419</v>
+        <v>-1.674157303370786</v>
       </c>
       <c r="J12">
-        <v>-0.3614190687361419</v>
+        <v>-1.674157303370786</v>
       </c>
       <c r="K12">
-        <v>-1.93</v>
+        <v>-15</v>
       </c>
       <c r="L12">
-        <v>-0.4279379157427938</v>
+        <v>-4.213483146067416</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1946,198 +1955,73 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>18.3</v>
+        <v>0.92</v>
       </c>
       <c r="V12">
-        <v>0.2824074074074074</v>
+        <v>0.03607843137254902</v>
       </c>
       <c r="W12">
-        <v>-0.07782258064516129</v>
+        <v>-0.974025974025974</v>
       </c>
       <c r="X12">
-        <v>0.05157419919816474</v>
+        <v>0.04390340375106819</v>
       </c>
       <c r="Y12">
-        <v>-0.129396779843326</v>
+        <v>-1.017929377777042</v>
       </c>
       <c r="Z12">
-        <v>0.6632352941176469</v>
+        <v>0.3753294675803901</v>
       </c>
       <c r="AA12">
-        <v>-0.2397058823529411</v>
+        <v>-0.628360569319979</v>
       </c>
       <c r="AB12">
-        <v>0.05157419919816474</v>
+        <v>0.03972770303455694</v>
       </c>
       <c r="AC12">
-        <v>-0.2912800815511059</v>
+        <v>-0.6680882723545359</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="AG12">
-        <v>-18.3</v>
+        <v>5.16</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.1925269157694744</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.3559718969555036</v>
       </c>
       <c r="AJ12">
-        <v>-0.3935483870967742</v>
+        <v>0.1682974559686888</v>
       </c>
       <c r="AK12">
-        <v>-2.652173913043479</v>
+        <v>0.3193069306930693</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AM12">
-        <v>-0.226</v>
+        <v>0.332</v>
       </c>
       <c r="AN12">
-        <v>-0</v>
+        <v>-1.107468123861566</v>
+      </c>
+      <c r="AO12">
+        <v>-16.10810810810811</v>
       </c>
       <c r="AP12">
-        <v>11.22699386503068</v>
+        <v>-0.9398907103825137</v>
       </c>
       <c r="AQ12">
-        <v>7.212389380530973</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Asia Development Capital Co. Ltd. (TSE:9318)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>-0.156</v>
-      </c>
-      <c r="G13">
-        <v>-0.5323308270676691</v>
-      </c>
-      <c r="H13">
-        <v>-0.5323308270676691</v>
-      </c>
-      <c r="I13">
-        <v>-0.5112781954887218</v>
-      </c>
-      <c r="J13">
-        <v>-0.5112781954887218</v>
-      </c>
-      <c r="K13">
-        <v>-10.2</v>
-      </c>
-      <c r="L13">
-        <v>-0.7669172932330827</v>
-      </c>
-      <c r="M13">
-        <v>-0</v>
-      </c>
-      <c r="N13">
-        <v>-0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>-0</v>
-      </c>
-      <c r="Q13">
-        <v>-0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>2.55</v>
-      </c>
-      <c r="V13">
-        <v>0.07348703170028817</v>
-      </c>
-      <c r="W13">
-        <v>-0.3434343434343434</v>
-      </c>
-      <c r="X13">
-        <v>0.05322480754051058</v>
-      </c>
-      <c r="Y13">
-        <v>-0.396659150974854</v>
-      </c>
-      <c r="Z13">
-        <v>0.4715308799546196</v>
-      </c>
-      <c r="AA13">
-        <v>-0.241083457420407</v>
-      </c>
-      <c r="AB13">
-        <v>0.05166547522703786</v>
-      </c>
-      <c r="AC13">
-        <v>-0.2927489326474449</v>
-      </c>
-      <c r="AD13">
-        <v>2.55</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>2.55</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0.06845637583892616</v>
-      </c>
-      <c r="AI13">
-        <v>0.1161731207289294</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0.278</v>
-      </c>
-      <c r="AM13">
-        <v>0.269</v>
-      </c>
-      <c r="AN13">
-        <v>-0.4207920792079208</v>
-      </c>
-      <c r="AO13">
-        <v>-24.46043165467626</v>
-      </c>
-      <c r="AP13">
-        <v>-0</v>
-      </c>
-      <c r="AQ13">
-        <v>-25.27881040892193</v>
+        <v>-17.95180722891566</v>
       </c>
     </row>
   </sheetData>
